--- a/DRGsDepts OLAP DATA_MART.xlsx
+++ b/DRGsDepts OLAP DATA_MART.xlsx
@@ -147,7 +147,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="135">
+  <si>
+    <t>DRGsDepts_FACT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
   <si>
     <t>序号</t>
   </si>
@@ -321,6 +325,14 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>float</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -343,62 +355,6 @@
   <si>
     <t>FK,ref
 DRG_Dim.drg_code</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>病患drg_patient_case.coding_status='1'</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>count DRGsPatient_FACT, Group by month, dept_no, drg_code</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>病患drg_patient_case.return_code( 转归) 若’5’ (死亡)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sum(DRGsPatient_FACT.drg_weight)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AVG(该科DRG个案之住院总费用,DRGsPatient_FACT.drg_amt)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>drg_basic.std_drg_amt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AVG(该科DRG个案之住院总费用, DRGsPatient_FACT.drg_amt) / drg_basic.std_drg_amt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AVG(该科DRG个案之住院日,DRGsPatient_FACT.admit_days)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>drg_basic.std_avg_days</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AVG(该科DRG个案之住院日,DRGsPatient_FACT.admit_days) / drg_basic.std_avg_days</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>count( DRGsPatient_FACT.admit_days &gt; 60), group by dept_no, drg_code</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>参照PPT说明</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>参照PPT说明</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>保持优势、弥补不足、重点发展</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -518,10 +474,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>sequence</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar(20)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -542,61 +494,32 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Doc_Dim</t>
-  </si>
-  <si>
-    <t>醫師码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>醫師姓名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>醫師等級</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>等級說明</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>醫師所屬科別</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>doc_Code</t>
-  </si>
-  <si>
-    <t>doc_name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>doc_level</t>
-  </si>
-  <si>
-    <t>doc_level_name</t>
-  </si>
-  <si>
-    <t>doc_dept_code</t>
-  </si>
-  <si>
-    <t>varchar(21)</t>
-  </si>
-  <si>
-    <t>varchar(22)</t>
-  </si>
-  <si>
-    <t>varchar(23)</t>
-  </si>
-  <si>
-    <t>varchar(24)</t>
+    <t>Date_Dim</t>
+  </si>
+  <si>
+    <t>西元日期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>年</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>季</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>月</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>yyyy_date</t>
+  </si>
+  <si>
     <t>year</t>
   </si>
   <si>
@@ -606,14 +529,13 @@
     <t>month</t>
   </si>
   <si>
+    <t>weekend</t>
+  </si>
+  <si>
     <t>varchar(20)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Drg_Dim</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -643,6 +565,10 @@
   </si>
   <si>
     <t xml:space="preserve">并发症与合并症 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>病组费用标杆</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -738,6 +664,14 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>varchar(200)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -769,30 +703,14 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>年</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>月</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>yyyy_mm</t>
   </si>
   <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>PK</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DRGsDepts_FACT</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -800,7 +718,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -900,14 +818,6 @@
       <color rgb="FF000000"/>
       <name val="細明體"/>
       <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
-      <family val="1"/>
       <charset val="136"/>
     </font>
     <font>
@@ -1106,7 +1016,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1188,12 +1098,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1209,7 +1113,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
@@ -1497,9 +1401,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -1562,237 +1466,209 @@
     </row>
     <row r="2" spans="1:20" ht="34.799999999999997">
       <c r="A2" s="2" t="s">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="19.8">
       <c r="A3" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S3" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="19.8">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="S4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="R4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="S4" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="64.8">
+    </row>
+    <row r="5" spans="1:20" ht="32.4">
       <c r="A5" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="M5" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="N5" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="O5" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="P5" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q5" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="R5" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="S5" s="13" t="s">
-        <v>59</v>
-      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
     </row>
     <row r="6" spans="1:20" ht="19.8">
       <c r="A6" s="1"/>
@@ -1806,132 +1682,132 @@
     </row>
     <row r="9" spans="1:20" ht="33" customHeight="1">
       <c r="A9" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="M9" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="N9" s="20" t="s">
         <v>61</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="K9" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="L9" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="M9" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="N9" s="20" t="s">
-        <v>72</v>
       </c>
       <c r="T9" s="21"/>
     </row>
     <row r="10" spans="1:20" ht="33" customHeight="1">
       <c r="A10" s="17"/>
       <c r="B10" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="N10" s="23" t="s">
         <v>73</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="L10" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="N10" s="23" t="s">
-        <v>84</v>
       </c>
       <c r="T10" s="21"/>
     </row>
     <row r="11" spans="1:20" ht="33" customHeight="1">
       <c r="A11" s="17"/>
       <c r="B11" s="8" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M11" s="24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N11" s="25" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="T11" s="21"/>
     </row>
@@ -1941,7 +1817,7 @@
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
@@ -1950,10 +1826,10 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
       <c r="L12" s="13" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="M12" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="T12" s="21"/>
     </row>
@@ -1962,243 +1838,243 @@
       <c r="S13" s="21"/>
     </row>
     <row r="14" spans="1:20" ht="22.2">
-      <c r="A14" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="S14" s="21"/>
+      <c r="A14" s="26"/>
+      <c r="S14" s="16"/>
     </row>
     <row r="15" spans="1:20" ht="22.2">
-      <c r="A15" s="17"/>
-      <c r="B15" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>101</v>
+      <c r="A15" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="S15" s="21"/>
     </row>
     <row r="16" spans="1:20" ht="22.2">
       <c r="A16" s="17"/>
       <c r="B16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="G16" s="28" t="s">
-        <v>105</v>
+      <c r="D16" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="S16" s="21"/>
     </row>
     <row r="17" spans="1:19" ht="22.2">
       <c r="A17" s="17"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+      <c r="B17" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="S17" s="21"/>
     </row>
     <row r="18" spans="1:19" ht="22.2">
-      <c r="A18" s="26"/>
-      <c r="S18" s="16"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="S18" s="21"/>
     </row>
     <row r="19" spans="1:19" ht="22.2">
       <c r="A19" s="15"/>
     </row>
     <row r="20" spans="1:19" ht="33" customHeight="1">
       <c r="A20" s="17" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="O20" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="P20" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="29" t="s">
-        <v>125</v>
+        <v>102</v>
+      </c>
+      <c r="O20" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="P20" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q20" s="27" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:19">
       <c r="B21" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="G21" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="H21" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="I21" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="J21" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="L21" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="M21" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="N21" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="O21" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="P21" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q21" s="33" t="s">
-        <v>140</v>
+        <v>106</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="J21" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="K21" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="L21" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="M21" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="N21" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="O21" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="P21" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q21" s="31" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:19">
       <c r="B22" s="9" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="J22" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="O22" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="P22" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="K22" s="9" t="s">
+      <c r="Q22" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="L22" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="M22" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="N22" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="O22" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="P22" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q22" s="9" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="32.4">
@@ -2208,7 +2084,7 @@
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
       <c r="G23" s="13" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
@@ -2217,75 +2093,75 @@
       <c r="L23" s="13"/>
       <c r="M23" s="13"/>
       <c r="N23" s="13"/>
-      <c r="O23" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="P23" s="35" t="s">
-        <v>146</v>
+      <c r="O23" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="P23" s="33" t="s">
+        <v>128</v>
       </c>
       <c r="Q23" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="22.2">
       <c r="A25" s="17" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="22.2">
       <c r="A26" s="17"/>
       <c r="B26" s="8" t="s">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="22.2">
       <c r="A27" s="17"/>
       <c r="B27" s="8" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>154</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:19">
       <c r="C28" s="13" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
